--- a/packing_list/utils/output.xlsx
+++ b/packing_list/utils/output.xlsx
@@ -1280,7 +1280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ff10f6ad-8571-4a90-9a2f-5ee18d96af92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7a2181e6-69e9-4ff0-a125-1fea129e6fdf}">
   <dimension ref="A1:ZZ45"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -33390,7 +33390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ea535b10-2741-4da8-85af-d3412756c4b2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f8d4036d-3ae2-45de-ae9a-aaa53238c6f4}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
